--- a/Autospace.xlsx
+++ b/Autospace.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -13,64 +13,16 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AUTOSPACE!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AUTOSPACE!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>C14006</t>
-  </si>
-  <si>
-    <t>C14130</t>
-  </si>
-  <si>
-    <t>C14200</t>
-  </si>
-  <si>
-    <t>C151431</t>
-  </si>
-  <si>
-    <t>C161341</t>
-  </si>
-  <si>
-    <t>C18582</t>
-  </si>
-  <si>
-    <t>C20500</t>
-  </si>
-  <si>
-    <t>C25004</t>
-  </si>
-  <si>
-    <t>C25016</t>
-  </si>
-  <si>
-    <t>C26168</t>
-  </si>
-  <si>
-    <t>HU7214X</t>
-  </si>
-  <si>
-    <t>HU7262X</t>
-  </si>
-  <si>
-    <t>HU816X</t>
-  </si>
-  <si>
-    <t>HU818X</t>
-  </si>
-  <si>
-    <t>HU821X</t>
-  </si>
-  <si>
-    <t>HU9254X</t>
-  </si>
-  <si>
-    <t>MW64</t>
   </si>
   <si>
     <t>MW65</t>
@@ -82,154 +34,13 @@
     <t>PU1033X</t>
   </si>
   <si>
-    <t>PU7004Z</t>
-  </si>
-  <si>
-    <t>PU723X</t>
-  </si>
-  <si>
-    <t>PU816X</t>
-  </si>
-  <si>
-    <t>PU825X</t>
-  </si>
-  <si>
-    <t>PU830X</t>
-  </si>
-  <si>
-    <t>PU9003z</t>
-  </si>
-  <si>
-    <t>PU922X</t>
-  </si>
-  <si>
-    <t>PU9661X</t>
-  </si>
-  <si>
-    <t>W1110234</t>
-  </si>
-  <si>
-    <t>W6101</t>
-  </si>
-  <si>
-    <t>W6103</t>
-  </si>
-  <si>
-    <t>W6106</t>
-  </si>
-  <si>
-    <t>W671</t>
-  </si>
-  <si>
-    <t>W683</t>
-  </si>
-  <si>
-    <t>W7008</t>
-  </si>
-  <si>
-    <t>W7015</t>
-  </si>
-  <si>
-    <t>W71273</t>
-  </si>
-  <si>
-    <t>W71283</t>
-  </si>
-  <si>
-    <t>W71293</t>
-  </si>
-  <si>
-    <t>W71294</t>
-  </si>
-  <si>
-    <t>W71945</t>
-  </si>
-  <si>
-    <t>W7195</t>
-  </si>
-  <si>
-    <t>W8017</t>
-  </si>
-  <si>
-    <t>WK82014</t>
-  </si>
-  <si>
-    <t>WK82016</t>
-  </si>
-  <si>
-    <t>WK82017</t>
-  </si>
-  <si>
-    <t>WK82018</t>
-  </si>
-  <si>
-    <t>WK8202X</t>
-  </si>
-  <si>
-    <t>WK8222</t>
-  </si>
-  <si>
-    <t>WK84213</t>
-  </si>
-  <si>
-    <t>WK84223X</t>
-  </si>
-  <si>
-    <t>WK8423</t>
-  </si>
-  <si>
-    <t>WK8533X</t>
-  </si>
-  <si>
-    <t>WK8571</t>
-  </si>
-  <si>
-    <t>WK9392Z</t>
-  </si>
-  <si>
-    <t>WK94020</t>
-  </si>
-  <si>
-    <t>WK95021</t>
-  </si>
-  <si>
-    <t>WP111023</t>
-  </si>
-  <si>
     <t>MZA360531</t>
   </si>
   <si>
     <t>RX389823A0</t>
   </si>
   <si>
-    <t>ZA2802418</t>
-  </si>
-  <si>
-    <t>ZA3103B2</t>
-  </si>
-  <si>
     <t>ZA34002B1</t>
-  </si>
-  <si>
-    <t>ZA34031A1</t>
-  </si>
-  <si>
-    <t>ZA34032A1</t>
-  </si>
-  <si>
-    <t>ZA34036A1</t>
-  </si>
-  <si>
-    <t>ZA360832</t>
-  </si>
-  <si>
-    <t>KG1506549</t>
-  </si>
-  <si>
-    <t>KG19004449</t>
-  </si>
-  <si>
-    <t>KG190062010</t>
   </si>
   <si>
     <t>KG19011741</t>
@@ -238,160 +49,16 @@
     <t>KN1902043</t>
   </si>
   <si>
-    <t>KN19020B1</t>
-  </si>
-  <si>
-    <t>KN19021A1</t>
-  </si>
-  <si>
-    <t>KN1903042</t>
-  </si>
-  <si>
-    <t>KN2003641</t>
-  </si>
-  <si>
-    <t>KN23029C1</t>
-  </si>
-  <si>
-    <t>RX609825A0</t>
-  </si>
-  <si>
-    <t>RX609826A0</t>
-  </si>
-  <si>
-    <t>ZA2602A1</t>
-  </si>
-  <si>
-    <t>ZA290331</t>
-  </si>
-  <si>
-    <t>ZA290732</t>
-  </si>
-  <si>
-    <t>ZA31013A2</t>
-  </si>
-  <si>
-    <t>ZA310932</t>
-  </si>
-  <si>
-    <t>ZA3201147</t>
-  </si>
-  <si>
-    <t>ZA3404531</t>
-  </si>
-  <si>
-    <t>DPV1041</t>
-  </si>
-  <si>
     <t>DPV1046</t>
   </si>
   <si>
     <t>DPV1056</t>
   </si>
   <si>
-    <t>DPV1065</t>
-  </si>
-  <si>
-    <t>DPV1072</t>
-  </si>
-  <si>
-    <t>DPV1077</t>
-  </si>
-  <si>
-    <t>DPV1132</t>
-  </si>
-  <si>
-    <t>KTB322</t>
-  </si>
-  <si>
-    <t>KTB399</t>
-  </si>
-  <si>
     <t>KTB458</t>
   </si>
   <si>
     <t>KTB461</t>
-  </si>
-  <si>
-    <t>KTB468</t>
-  </si>
-  <si>
-    <t>KTB494</t>
-  </si>
-  <si>
-    <t>KTB759</t>
-  </si>
-  <si>
-    <t>KTB788</t>
-  </si>
-  <si>
-    <t>KTC1000</t>
-  </si>
-  <si>
-    <t>KTC1002</t>
-  </si>
-  <si>
-    <t>DPV1027</t>
-  </si>
-  <si>
-    <t>DPV1029</t>
-  </si>
-  <si>
-    <t>DPV1061</t>
-  </si>
-  <si>
-    <t>DPV1063</t>
-  </si>
-  <si>
-    <t>DPV1068</t>
-  </si>
-  <si>
-    <t>DPV1069</t>
-  </si>
-  <si>
-    <t>DPV1156</t>
-  </si>
-  <si>
-    <t>DPV1172</t>
-  </si>
-  <si>
-    <t>DPV1210</t>
-  </si>
-  <si>
-    <t>KTB1101</t>
-  </si>
-  <si>
-    <t>KTB250</t>
-  </si>
-  <si>
-    <t>KTB298</t>
-  </si>
-  <si>
-    <t>KTB307</t>
-  </si>
-  <si>
-    <t>KTB310</t>
-  </si>
-  <si>
-    <t>KTB383</t>
-  </si>
-  <si>
-    <t>KTB432</t>
-  </si>
-  <si>
-    <t>KTB453</t>
-  </si>
-  <si>
-    <t>KTB503</t>
-  </si>
-  <si>
-    <t>KTB521</t>
-  </si>
-  <si>
-    <t>KTB527</t>
-  </si>
-  <si>
-    <t>KTB534</t>
   </si>
   <si>
     <t>KTC1010</t>
@@ -465,8 +132,36 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный_AUTOSPACE" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -4038,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4090,28 +3785,28 @@
       </c>
       <c r="B2" t="str">
         <f>VLOOKUP(C2,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Масляный фильтр MANN</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>98304</v>
+        <v>97701</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(C2,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F2" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <f>VLOOKUP(C2,[1]Лист1!A:H,8,0)</f>
-        <v>483</v>
+        <v>245</v>
       </c>
       <c r="H2">
         <f>VLOOKUP(C2,[1]Лист1!A:H,7,0)</f>
-        <v>528</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4121,28 +3816,28 @@
       </c>
       <c r="B3" t="str">
         <f>VLOOKUP(C3,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Топливный фильтр MANN</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>98002</v>
+        <v>171959</v>
       </c>
       <c r="E3" t="str">
         <f>VLOOKUP(C3,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F3" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <f>VLOOKUP(C3,[1]Лист1!A:H,8,0)</f>
-        <v>729</v>
+        <v>1060</v>
       </c>
       <c r="H3">
         <f>VLOOKUP(C3,[1]Лист1!A:H,7,0)</f>
-        <v>797</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4152,106 +3847,106 @@
       </c>
       <c r="B4" t="str">
         <f>VLOOKUP(C4,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Топливный фильтр MANN</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>97969</v>
+        <v>97883</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP(C4,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F4" s="4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f>VLOOKUP(C4,[1]Лист1!A:H,8,0)</f>
-        <v>1039</v>
+        <v>1662</v>
       </c>
       <c r="H4">
         <f>VLOOKUP(C4,[1]Лист1!A:H,7,0)</f>
-        <v>1135</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="str">
         <f>VLOOKUP(C5,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>FTE</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(C5,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Раб цилиндр сцепления FTE</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>141624</v>
+        <v>143831</v>
       </c>
       <c r="E5" t="str">
         <f>VLOOKUP(C5,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F5" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>VLOOKUP(C5,[1]Лист1!A:H,8,0)</f>
-        <v>420</v>
+        <v>9120</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(C5,[1]Лист1!A:H,7,0)</f>
-        <v>460</v>
+        <v>10468</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="str">
         <f>VLOOKUP(C6,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>FTE</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(C6,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Тормозные суппорта FTE</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>98517</v>
+        <v>167354</v>
       </c>
       <c r="E6" t="str">
         <f>VLOOKUP(C6,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F6" s="4">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f>VLOOKUP(C6,[1]Лист1!A:H,8,0)</f>
-        <v>352</v>
+        <v>2957</v>
       </c>
       <c r="H6">
         <f>VLOOKUP(C6,[1]Лист1!A:H,7,0)</f>
-        <v>384</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="str">
         <f>VLOOKUP(C7,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>FTE</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(C7,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Раб цилиндр сцепления FTE</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>138016</v>
+        <v>143802</v>
       </c>
       <c r="E7" t="str">
         <f>VLOOKUP(C7,[1]Лист1!A:H,6,0)</f>
@@ -4262,3668 +3957,227 @@
       </c>
       <c r="G7">
         <f>VLOOKUP(C7,[1]Лист1!A:H,8,0)</f>
-        <v>1118</v>
+        <v>2792</v>
       </c>
       <c r="H7">
         <f>VLOOKUP(C7,[1]Лист1!A:H,7,0)</f>
-        <v>1222</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="str">
         <f>VLOOKUP(C8,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>FTE</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(C8,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Гл цилиндр сцепления FTE</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4">
-        <v>100884</v>
+        <v>153826</v>
       </c>
       <c r="E8" t="str">
         <f>VLOOKUP(C8,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F8" s="4">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <f>VLOOKUP(C8,[1]Лист1!A:H,8,0)</f>
-        <v>569</v>
+        <v>2593</v>
       </c>
       <c r="H8">
         <f>VLOOKUP(C8,[1]Лист1!A:H,7,0)</f>
-        <v>622</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="str">
         <f>VLOOKUP(C9,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>FTE</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(C9,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Раб цилиндр сцепления FTE</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>143056</v>
+        <v>153825</v>
       </c>
       <c r="E9" t="str">
         <f>VLOOKUP(C9,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F9" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f>VLOOKUP(C9,[1]Лист1!A:H,8,0)</f>
-        <v>308</v>
+        <v>894</v>
       </c>
       <c r="H9">
         <f>VLOOKUP(C9,[1]Лист1!A:H,7,0)</f>
-        <v>336</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="str">
         <f>VLOOKUP(C10,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>DAYCO</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(C10,[1]Лист1!A:C,3,0)</f>
-        <v>Воздушный фильтр MANN</v>
+        <v>Шкив коленвала DAYCO</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>98770</v>
+        <v>52146</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP(C10,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F10" s="4">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <f>VLOOKUP(C10,[1]Лист1!A:H,8,0)</f>
-        <v>273</v>
+        <v>3228</v>
       </c>
       <c r="H10">
         <f>VLOOKUP(C10,[1]Лист1!A:H,7,0)</f>
-        <v>302</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="str">
         <f>VLOOKUP(C11,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>DAYCO</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(C11,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
+        <v>Шкив коленвала DAYCO</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>98756</v>
+        <v>78356</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP(C11,[1]Лист1!A:H,6,0)</f>
         <v>шт</v>
       </c>
       <c r="F11" s="4">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f>VLOOKUP(C11,[1]Лист1!A:H,8,0)</f>
-        <v>354</v>
+        <v>2612</v>
       </c>
       <c r="H11">
         <f>VLOOKUP(C11,[1]Лист1!A:H,7,0)</f>
-        <v>387</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="str">
         <f>VLOOKUP(C12,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>DAYCO</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(C12,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
+        <v>Комплекты ГРМ DAYCO</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>98772</v>
+        <v>115966</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP(C12,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
+        <v>к-т</v>
       </c>
       <c r="F12" s="4">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <f>VLOOKUP(C12,[1]Лист1!A:H,8,0)</f>
-        <v>225</v>
+        <v>2886</v>
       </c>
       <c r="H12">
         <f>VLOOKUP(C12,[1]Лист1!A:H,7,0)</f>
-        <v>246</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="str">
         <f>VLOOKUP(C13,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>DAYCO</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(C13,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
+        <v>Комплекты ГРМ DAYCO</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>97959</v>
+        <v>115967</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP(C13,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
+        <v>к-т</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <f>VLOOKUP(C13,[1]Лист1!A:H,8,0)</f>
-        <v>303</v>
+        <v>1703</v>
       </c>
       <c r="H13">
         <f>VLOOKUP(C13,[1]Лист1!A:H,7,0)</f>
-        <v>331</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="str">
         <f>VLOOKUP(C14,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
+        <v>DAYCO</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(C14,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
+        <v>Комплекты ГРМ DAYCO</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>98073</v>
+        <v>166574</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP(C14,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
+        <v>к-т</v>
       </c>
       <c r="F14" s="4">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <f>VLOOKUP(C14,[1]Лист1!A:H,8,0)</f>
-        <v>342</v>
+        <v>5804</v>
       </c>
       <c r="H14">
         <f>VLOOKUP(C14,[1]Лист1!A:H,7,0)</f>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="str">
-        <f>VLOOKUP(C15,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(C15,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4">
-        <v>98177</v>
-      </c>
-      <c r="E15" t="str">
-        <f>VLOOKUP(C15,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F15" s="4">
-        <v>22</v>
-      </c>
-      <c r="G15">
-        <f>VLOOKUP(C15,[1]Лист1!A:H,8,0)</f>
-        <v>364</v>
-      </c>
-      <c r="H15">
-        <f>VLOOKUP(C15,[1]Лист1!A:H,7,0)</f>
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="str">
-        <f>VLOOKUP(C16,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(C16,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4">
-        <v>98599</v>
-      </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(C16,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <f>VLOOKUP(C16,[1]Лист1!A:H,8,0)</f>
-        <v>237</v>
-      </c>
-      <c r="H16">
-        <f>VLOOKUP(C16,[1]Лист1!A:H,7,0)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="str">
-        <f>VLOOKUP(C17,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(C17,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4">
-        <v>98096</v>
-      </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(C17,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F17" s="4">
-        <v>75</v>
-      </c>
-      <c r="G17">
-        <f>VLOOKUP(C17,[1]Лист1!A:H,8,0)</f>
-        <v>231</v>
-      </c>
-      <c r="H17">
-        <f>VLOOKUP(C17,[1]Лист1!A:H,7,0)</f>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="str">
-        <f>VLOOKUP(C18,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(C18,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4">
-        <v>97701</v>
-      </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(C18,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <f>VLOOKUP(C18,[1]Лист1!A:H,8,0)</f>
-        <v>245</v>
-      </c>
-      <c r="H18">
-        <f>VLOOKUP(C18,[1]Лист1!A:H,7,0)</f>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="str">
-        <f>VLOOKUP(C19,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(C19,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4">
-        <v>171959</v>
-      </c>
-      <c r="E19" t="str">
-        <f>VLOOKUP(C19,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <f>VLOOKUP(C19,[1]Лист1!A:H,8,0)</f>
-        <v>1060</v>
-      </c>
-      <c r="H19">
-        <f>VLOOKUP(C19,[1]Лист1!A:H,7,0)</f>
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="str">
-        <f>VLOOKUP(C20,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(C20,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4">
-        <v>97883</v>
-      </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(C20,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f>VLOOKUP(C20,[1]Лист1!A:H,8,0)</f>
-        <v>1662</v>
-      </c>
-      <c r="H20">
-        <f>VLOOKUP(C20,[1]Лист1!A:H,7,0)</f>
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="str">
-        <f>VLOOKUP(C21,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(C21,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4">
-        <v>175418</v>
-      </c>
-      <c r="E21" t="str">
-        <f>VLOOKUP(C21,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F21" s="4">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <f>VLOOKUP(C21,[1]Лист1!A:H,8,0)</f>
-        <v>1729</v>
-      </c>
-      <c r="H21">
-        <f>VLOOKUP(C21,[1]Лист1!A:H,7,0)</f>
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="str">
-        <f>VLOOKUP(C22,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(C22,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="4">
-        <v>99014</v>
-      </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(C22,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F22" s="4">
-        <v>51</v>
-      </c>
-      <c r="G22">
-        <f>VLOOKUP(C22,[1]Лист1!A:H,8,0)</f>
-        <v>631</v>
-      </c>
-      <c r="H22">
-        <f>VLOOKUP(C22,[1]Лист1!A:H,7,0)</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="str">
-        <f>VLOOKUP(C23,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(C23,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="4">
-        <v>97909</v>
-      </c>
-      <c r="E23" t="str">
-        <f>VLOOKUP(C23,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F23" s="4">
-        <v>19</v>
-      </c>
-      <c r="G23">
-        <f>VLOOKUP(C23,[1]Лист1!A:H,8,0)</f>
-        <v>752</v>
-      </c>
-      <c r="H23">
-        <f>VLOOKUP(C23,[1]Лист1!A:H,7,0)</f>
-        <v>822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="str">
-        <f>VLOOKUP(C24,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(C24,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4">
-        <v>98380</v>
-      </c>
-      <c r="E24" t="str">
-        <f>VLOOKUP(C24,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F24" s="4">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <f>VLOOKUP(C24,[1]Лист1!A:H,8,0)</f>
-        <v>746</v>
-      </c>
-      <c r="H24">
-        <f>VLOOKUP(C24,[1]Лист1!A:H,7,0)</f>
-        <v>815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="str">
-        <f>VLOOKUP(C25,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(C25,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4">
-        <v>99079</v>
-      </c>
-      <c r="E25" t="str">
-        <f>VLOOKUP(C25,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F25" s="4">
-        <v>21</v>
-      </c>
-      <c r="G25">
-        <f>VLOOKUP(C25,[1]Лист1!A:H,8,0)</f>
-        <v>488</v>
-      </c>
-      <c r="H25">
-        <f>VLOOKUP(C25,[1]Лист1!A:H,7,0)</f>
-        <v>533</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="str">
-        <f>VLOOKUP(C26,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(C26,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="4">
-        <v>117871</v>
-      </c>
-      <c r="E26" t="str">
-        <f>VLOOKUP(C26,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F26" s="4">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <f>VLOOKUP(C26,[1]Лист1!A:H,8,0)</f>
-        <v>898</v>
-      </c>
-      <c r="H26">
-        <f>VLOOKUP(C26,[1]Лист1!A:H,7,0)</f>
-        <v>982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="str">
-        <f>VLOOKUP(C27,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(C27,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4">
-        <v>98709</v>
-      </c>
-      <c r="E27" t="str">
-        <f>VLOOKUP(C27,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F27" s="4">
-        <v>15</v>
-      </c>
-      <c r="G27">
-        <f>VLOOKUP(C27,[1]Лист1!A:H,8,0)</f>
-        <v>392</v>
-      </c>
-      <c r="H27">
-        <f>VLOOKUP(C27,[1]Лист1!A:H,7,0)</f>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="str">
-        <f>VLOOKUP(C28,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(C28,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="4">
-        <v>218813</v>
-      </c>
-      <c r="E28" t="str">
-        <f>VLOOKUP(C28,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F28" s="4">
-        <v>5</v>
-      </c>
-      <c r="G28">
-        <f>VLOOKUP(C28,[1]Лист1!A:H,8,0)</f>
-        <v>631</v>
-      </c>
-      <c r="H28">
-        <f>VLOOKUP(C28,[1]Лист1!A:H,7,0)</f>
-        <v>689</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="str">
-        <f>VLOOKUP(C29,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(C29,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="4">
-        <v>107868</v>
-      </c>
-      <c r="E29" t="str">
-        <f>VLOOKUP(C29,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F29" s="4">
-        <v>48</v>
-      </c>
-      <c r="G29">
-        <f>VLOOKUP(C29,[1]Лист1!A:H,8,0)</f>
-        <v>466</v>
-      </c>
-      <c r="H29">
-        <f>VLOOKUP(C29,[1]Лист1!A:H,7,0)</f>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="str">
-        <f>VLOOKUP(C30,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(C30,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="4">
-        <v>98824</v>
-      </c>
-      <c r="E30" t="str">
-        <f>VLOOKUP(C30,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F30" s="4">
-        <v>32</v>
-      </c>
-      <c r="G30">
-        <f>VLOOKUP(C30,[1]Лист1!A:H,8,0)</f>
-        <v>172</v>
-      </c>
-      <c r="H30">
-        <f>VLOOKUP(C30,[1]Лист1!A:H,7,0)</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="str">
-        <f>VLOOKUP(C31,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(C31,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="4">
-        <v>98969</v>
-      </c>
-      <c r="E31" t="str">
-        <f>VLOOKUP(C31,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F31" s="4">
-        <v>119</v>
-      </c>
-      <c r="G31">
-        <f>VLOOKUP(C31,[1]Лист1!A:H,8,0)</f>
-        <v>166</v>
-      </c>
-      <c r="H31">
-        <f>VLOOKUP(C31,[1]Лист1!A:H,7,0)</f>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="str">
-        <f>VLOOKUP(C32,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B32" t="str">
-        <f>VLOOKUP(C32,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="4">
-        <v>100889</v>
-      </c>
-      <c r="E32" t="str">
-        <f>VLOOKUP(C32,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F32" s="4">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <f>VLOOKUP(C32,[1]Лист1!A:H,8,0)</f>
-        <v>216</v>
-      </c>
-      <c r="H32">
-        <f>VLOOKUP(C32,[1]Лист1!A:H,7,0)</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" t="str">
-        <f>VLOOKUP(C33,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(C33,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="4">
-        <v>98974</v>
-      </c>
-      <c r="E33" t="str">
-        <f>VLOOKUP(C33,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F33" s="4">
-        <v>90</v>
-      </c>
-      <c r="G33">
-        <f>VLOOKUP(C33,[1]Лист1!A:H,8,0)</f>
-        <v>154</v>
-      </c>
-      <c r="H33">
-        <f>VLOOKUP(C33,[1]Лист1!A:H,7,0)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="str">
-        <f>VLOOKUP(C34,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B34" t="str">
-        <f>VLOOKUP(C34,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="4">
-        <v>98137</v>
-      </c>
-      <c r="E34" t="str">
-        <f>VLOOKUP(C34,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F34" s="4">
-        <v>33</v>
-      </c>
-      <c r="G34">
-        <f>VLOOKUP(C34,[1]Лист1!A:H,8,0)</f>
-        <v>169</v>
-      </c>
-      <c r="H34">
-        <f>VLOOKUP(C34,[1]Лист1!A:H,7,0)</f>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" t="str">
-        <f>VLOOKUP(C35,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B35" t="str">
-        <f>VLOOKUP(C35,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="4">
-        <v>98818</v>
-      </c>
-      <c r="E35" t="str">
-        <f>VLOOKUP(C35,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F35" s="4">
-        <v>70</v>
-      </c>
-      <c r="G35">
-        <f>VLOOKUP(C35,[1]Лист1!A:H,8,0)</f>
-        <v>165</v>
-      </c>
-      <c r="H35">
-        <f>VLOOKUP(C35,[1]Лист1!A:H,7,0)</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" t="str">
-        <f>VLOOKUP(C36,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B36" t="str">
-        <f>VLOOKUP(C36,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="4">
-        <v>175433</v>
-      </c>
-      <c r="E36" t="str">
-        <f>VLOOKUP(C36,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F36" s="4">
-        <v>28</v>
-      </c>
-      <c r="G36">
-        <f>VLOOKUP(C36,[1]Лист1!A:H,8,0)</f>
-        <v>206</v>
-      </c>
-      <c r="H36">
-        <f>VLOOKUP(C36,[1]Лист1!A:H,7,0)</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" t="str">
-        <f>VLOOKUP(C37,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B37" t="str">
-        <f>VLOOKUP(C37,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="4">
-        <v>99021</v>
-      </c>
-      <c r="E37" t="str">
-        <f>VLOOKUP(C37,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F37" s="4">
-        <v>31</v>
-      </c>
-      <c r="G37">
-        <f>VLOOKUP(C37,[1]Лист1!A:H,8,0)</f>
-        <v>206</v>
-      </c>
-      <c r="H37">
-        <f>VLOOKUP(C37,[1]Лист1!A:H,7,0)</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="str">
-        <f>VLOOKUP(C38,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B38" t="str">
-        <f>VLOOKUP(C38,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="4">
-        <v>98619</v>
-      </c>
-      <c r="E38" t="str">
-        <f>VLOOKUP(C38,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F38" s="4">
-        <v>33</v>
-      </c>
-      <c r="G38">
-        <f>VLOOKUP(C38,[1]Лист1!A:H,8,0)</f>
-        <v>155</v>
-      </c>
-      <c r="H38">
-        <f>VLOOKUP(C38,[1]Лист1!A:H,7,0)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" t="str">
-        <f>VLOOKUP(C39,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B39" t="str">
-        <f>VLOOKUP(C39,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="4">
-        <v>153603</v>
-      </c>
-      <c r="E39" t="str">
-        <f>VLOOKUP(C39,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F39" s="4">
-        <v>20</v>
-      </c>
-      <c r="G39">
-        <f>VLOOKUP(C39,[1]Лист1!A:H,8,0)</f>
-        <v>329</v>
-      </c>
-      <c r="H39">
-        <f>VLOOKUP(C39,[1]Лист1!A:H,7,0)</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" t="str">
-        <f>VLOOKUP(C40,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B40" t="str">
-        <f>VLOOKUP(C40,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="4">
-        <v>145697</v>
-      </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(C40,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F40" s="4">
-        <v>223</v>
-      </c>
-      <c r="G40">
-        <f>VLOOKUP(C40,[1]Лист1!A:H,8,0)</f>
-        <v>313</v>
-      </c>
-      <c r="H40">
-        <f>VLOOKUP(C40,[1]Лист1!A:H,7,0)</f>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="str">
-        <f>VLOOKUP(C41,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B41" t="str">
-        <f>VLOOKUP(C41,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="4">
-        <v>98052</v>
-      </c>
-      <c r="E41" t="str">
-        <f>VLOOKUP(C41,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F41" s="4">
-        <v>78</v>
-      </c>
-      <c r="G41">
-        <f>VLOOKUP(C41,[1]Лист1!A:H,8,0)</f>
-        <v>384</v>
-      </c>
-      <c r="H41">
-        <f>VLOOKUP(C41,[1]Лист1!A:H,7,0)</f>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" t="str">
-        <f>VLOOKUP(C42,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B42" t="str">
-        <f>VLOOKUP(C42,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="4">
-        <v>98989</v>
-      </c>
-      <c r="E42" t="str">
-        <f>VLOOKUP(C42,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F42" s="4">
-        <v>81</v>
-      </c>
-      <c r="G42">
-        <f>VLOOKUP(C42,[1]Лист1!A:H,8,0)</f>
-        <v>150</v>
-      </c>
-      <c r="H42">
-        <f>VLOOKUP(C42,[1]Лист1!A:H,7,0)</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="str">
-        <f>VLOOKUP(C43,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B43" t="str">
-        <f>VLOOKUP(C43,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="4">
-        <v>146856</v>
-      </c>
-      <c r="E43" t="str">
-        <f>VLOOKUP(C43,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F43" s="4">
-        <v>72</v>
-      </c>
-      <c r="G43">
-        <f>VLOOKUP(C43,[1]Лист1!A:H,8,0)</f>
-        <v>223</v>
-      </c>
-      <c r="H43">
-        <f>VLOOKUP(C43,[1]Лист1!A:H,7,0)</f>
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="str">
-        <f>VLOOKUP(C44,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B44" t="str">
-        <f>VLOOKUP(C44,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="4">
-        <v>165121</v>
-      </c>
-      <c r="E44" t="str">
-        <f>VLOOKUP(C44,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F44" s="4">
-        <v>9</v>
-      </c>
-      <c r="G44">
-        <f>VLOOKUP(C44,[1]Лист1!A:H,8,0)</f>
-        <v>3003</v>
-      </c>
-      <c r="H44">
-        <f>VLOOKUP(C44,[1]Лист1!A:H,7,0)</f>
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="str">
-        <f>VLOOKUP(C45,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B45" t="str">
-        <f>VLOOKUP(C45,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="4">
-        <v>161280</v>
-      </c>
-      <c r="E45" t="str">
-        <f>VLOOKUP(C45,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F45" s="4">
-        <v>32</v>
-      </c>
-      <c r="G45">
-        <f>VLOOKUP(C45,[1]Лист1!A:H,8,0)</f>
-        <v>1928</v>
-      </c>
-      <c r="H45">
-        <f>VLOOKUP(C45,[1]Лист1!A:H,7,0)</f>
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="str">
-        <f>VLOOKUP(C46,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B46" t="str">
-        <f>VLOOKUP(C46,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="4">
-        <v>161281</v>
-      </c>
-      <c r="E46" t="str">
-        <f>VLOOKUP(C46,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F46" s="4">
-        <v>33</v>
-      </c>
-      <c r="G46">
-        <f>VLOOKUP(C46,[1]Лист1!A:H,8,0)</f>
-        <v>2847</v>
-      </c>
-      <c r="H46">
-        <f>VLOOKUP(C46,[1]Лист1!A:H,7,0)</f>
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="str">
-        <f>VLOOKUP(C47,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B47" t="str">
-        <f>VLOOKUP(C47,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="4">
-        <v>164479</v>
-      </c>
-      <c r="E47" t="str">
-        <f>VLOOKUP(C47,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F47" s="4">
-        <v>32</v>
-      </c>
-      <c r="G47">
-        <f>VLOOKUP(C47,[1]Лист1!A:H,8,0)</f>
-        <v>2133</v>
-      </c>
-      <c r="H47">
-        <f>VLOOKUP(C47,[1]Лист1!A:H,7,0)</f>
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="str">
-        <f>VLOOKUP(C48,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B48" t="str">
-        <f>VLOOKUP(C48,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="4">
-        <v>98120</v>
-      </c>
-      <c r="E48" t="str">
-        <f>VLOOKUP(C48,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F48" s="4">
-        <v>10</v>
-      </c>
-      <c r="G48">
-        <f>VLOOKUP(C48,[1]Лист1!A:H,8,0)</f>
-        <v>1053</v>
-      </c>
-      <c r="H48">
-        <f>VLOOKUP(C48,[1]Лист1!A:H,7,0)</f>
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="str">
-        <f>VLOOKUP(C49,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B49" t="str">
-        <f>VLOOKUP(C49,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="4">
-        <v>98356</v>
-      </c>
-      <c r="E49" t="str">
-        <f>VLOOKUP(C49,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F49" s="4">
-        <v>10</v>
-      </c>
-      <c r="G49">
-        <f>VLOOKUP(C49,[1]Лист1!A:H,8,0)</f>
-        <v>950</v>
-      </c>
-      <c r="H49">
-        <f>VLOOKUP(C49,[1]Лист1!A:H,7,0)</f>
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="str">
-        <f>VLOOKUP(C50,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B50" t="str">
-        <f>VLOOKUP(C50,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="4">
-        <v>98804</v>
-      </c>
-      <c r="E50" t="str">
-        <f>VLOOKUP(C50,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F50" s="4">
-        <v>18</v>
-      </c>
-      <c r="G50">
-        <f>VLOOKUP(C50,[1]Лист1!A:H,8,0)</f>
-        <v>651</v>
-      </c>
-      <c r="H50">
-        <f>VLOOKUP(C50,[1]Лист1!A:H,7,0)</f>
-        <v>712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="str">
-        <f>VLOOKUP(C51,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B51" t="str">
-        <f>VLOOKUP(C51,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="4">
-        <v>97744</v>
-      </c>
-      <c r="E51" t="str">
-        <f>VLOOKUP(C51,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F51" s="4">
-        <v>15</v>
-      </c>
-      <c r="G51">
-        <f>VLOOKUP(C51,[1]Лист1!A:H,8,0)</f>
-        <v>1302</v>
-      </c>
-      <c r="H51">
-        <f>VLOOKUP(C51,[1]Лист1!A:H,7,0)</f>
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="str">
-        <f>VLOOKUP(C52,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B52" t="str">
-        <f>VLOOKUP(C52,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="4">
-        <v>98889</v>
-      </c>
-      <c r="E52" t="str">
-        <f>VLOOKUP(C52,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F52" s="4">
-        <v>5</v>
-      </c>
-      <c r="G52">
-        <f>VLOOKUP(C52,[1]Лист1!A:H,8,0)</f>
-        <v>718</v>
-      </c>
-      <c r="H52">
-        <f>VLOOKUP(C52,[1]Лист1!A:H,7,0)</f>
-        <v>785</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="str">
-        <f>VLOOKUP(C53,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B53" t="str">
-        <f>VLOOKUP(C53,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="4">
-        <v>98842</v>
-      </c>
-      <c r="E53" t="str">
-        <f>VLOOKUP(C53,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F53" s="4">
-        <v>27</v>
-      </c>
-      <c r="G53">
-        <f>VLOOKUP(C53,[1]Лист1!A:H,8,0)</f>
-        <v>673</v>
-      </c>
-      <c r="H53">
-        <f>VLOOKUP(C53,[1]Лист1!A:H,7,0)</f>
-        <v>736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="str">
-        <f>VLOOKUP(C54,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B54" t="str">
-        <f>VLOOKUP(C54,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="4">
-        <v>97874</v>
-      </c>
-      <c r="E54" t="str">
-        <f>VLOOKUP(C54,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F54" s="4">
-        <v>14</v>
-      </c>
-      <c r="G54">
-        <f>VLOOKUP(C54,[1]Лист1!A:H,8,0)</f>
-        <v>1963</v>
-      </c>
-      <c r="H54">
-        <f>VLOOKUP(C54,[1]Лист1!A:H,7,0)</f>
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="str">
-        <f>VLOOKUP(C55,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B55" t="str">
-        <f>VLOOKUP(C55,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="4">
-        <v>167207</v>
-      </c>
-      <c r="E55" t="str">
-        <f>VLOOKUP(C55,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F55" s="4">
-        <v>7</v>
-      </c>
-      <c r="G55">
-        <f>VLOOKUP(C55,[1]Лист1!A:H,8,0)</f>
-        <v>990</v>
-      </c>
-      <c r="H55">
-        <f>VLOOKUP(C55,[1]Лист1!A:H,7,0)</f>
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="str">
-        <f>VLOOKUP(C56,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B56" t="str">
-        <f>VLOOKUP(C56,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C56" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="4">
-        <v>137819</v>
-      </c>
-      <c r="E56" t="str">
-        <f>VLOOKUP(C56,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F56" s="4">
-        <v>16</v>
-      </c>
-      <c r="G56">
-        <f>VLOOKUP(C56,[1]Лист1!A:H,8,0)</f>
-        <v>489</v>
-      </c>
-      <c r="H56">
-        <f>VLOOKUP(C56,[1]Лист1!A:H,7,0)</f>
-        <v>535</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="str">
-        <f>VLOOKUP(C57,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B57" t="str">
-        <f>VLOOKUP(C57,[1]Лист1!A:C,3,0)</f>
-        <v>Топливный фильтр MANN</v>
-      </c>
-      <c r="C57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="4">
-        <v>131663</v>
-      </c>
-      <c r="E57" t="str">
-        <f>VLOOKUP(C57,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F57" s="4">
-        <v>17</v>
-      </c>
-      <c r="G57">
-        <f>VLOOKUP(C57,[1]Лист1!A:H,8,0)</f>
-        <v>625</v>
-      </c>
-      <c r="H57">
-        <f>VLOOKUP(C57,[1]Лист1!A:H,7,0)</f>
-        <v>683</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="str">
-        <f>VLOOKUP(C58,[1]Лист1!A:F,2,0)</f>
-        <v>MANN</v>
-      </c>
-      <c r="B58" t="str">
-        <f>VLOOKUP(C58,[1]Лист1!A:C,3,0)</f>
-        <v>Масляный фильтр MANN</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="4">
-        <v>103511</v>
-      </c>
-      <c r="E58" t="str">
-        <f>VLOOKUP(C58,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F58" s="4">
-        <v>20</v>
-      </c>
-      <c r="G58">
-        <f>VLOOKUP(C58,[1]Лист1!A:H,8,0)</f>
-        <v>509</v>
-      </c>
-      <c r="H58">
-        <f>VLOOKUP(C58,[1]Лист1!A:H,7,0)</f>
-        <v>556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="str">
-        <f>VLOOKUP(C59,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B59" t="str">
-        <f>VLOOKUP(C59,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="4">
-        <v>143831</v>
-      </c>
-      <c r="E59" t="str">
-        <f>VLOOKUP(C59,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F59" s="4">
-        <v>3</v>
-      </c>
-      <c r="G59">
-        <f>VLOOKUP(C59,[1]Лист1!A:H,8,0)</f>
-        <v>9120</v>
-      </c>
-      <c r="H59">
-        <f>VLOOKUP(C59,[1]Лист1!A:H,7,0)</f>
-        <v>10468</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" t="str">
-        <f>VLOOKUP(C60,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B60" t="str">
-        <f>VLOOKUP(C60,[1]Лист1!A:C,3,0)</f>
-        <v>Тормозные суппорта FTE</v>
-      </c>
-      <c r="C60" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="4">
-        <v>167354</v>
-      </c>
-      <c r="E60" t="str">
-        <f>VLOOKUP(C60,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F60" s="4">
-        <v>4</v>
-      </c>
-      <c r="G60">
-        <f>VLOOKUP(C60,[1]Лист1!A:H,8,0)</f>
-        <v>2957</v>
-      </c>
-      <c r="H60">
-        <f>VLOOKUP(C60,[1]Лист1!A:H,7,0)</f>
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="str">
-        <f>VLOOKUP(C61,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B61" t="str">
-        <f>VLOOKUP(C61,[1]Лист1!A:C,3,0)</f>
-        <v>Гл цилиндр сцепления FTE</v>
-      </c>
-      <c r="C61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="4">
-        <v>167346</v>
-      </c>
-      <c r="E61" t="str">
-        <f>VLOOKUP(C61,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F61" s="4">
-        <v>7</v>
-      </c>
-      <c r="G61">
-        <f>VLOOKUP(C61,[1]Лист1!A:H,8,0)</f>
-        <v>2653</v>
-      </c>
-      <c r="H61">
-        <f>VLOOKUP(C61,[1]Лист1!A:H,7,0)</f>
-        <v>3045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" t="str">
-        <f>VLOOKUP(C62,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B62" t="str">
-        <f>VLOOKUP(C62,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="4">
-        <v>143817</v>
-      </c>
-      <c r="E62" t="str">
-        <f>VLOOKUP(C62,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F62" s="4">
-        <v>6</v>
-      </c>
-      <c r="G62">
-        <f>VLOOKUP(C62,[1]Лист1!A:H,8,0)</f>
-        <v>4117</v>
-      </c>
-      <c r="H62">
-        <f>VLOOKUP(C62,[1]Лист1!A:H,7,0)</f>
-        <v>4726</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="str">
-        <f>VLOOKUP(C63,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B63" t="str">
-        <f>VLOOKUP(C63,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="4">
-        <v>143802</v>
-      </c>
-      <c r="E63" t="str">
-        <f>VLOOKUP(C63,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F63" s="4">
-        <v>13</v>
-      </c>
-      <c r="G63">
-        <f>VLOOKUP(C63,[1]Лист1!A:H,8,0)</f>
-        <v>2792</v>
-      </c>
-      <c r="H63">
-        <f>VLOOKUP(C63,[1]Лист1!A:H,7,0)</f>
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="str">
-        <f>VLOOKUP(C64,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B64" t="str">
-        <f>VLOOKUP(C64,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="4">
-        <v>143821</v>
-      </c>
-      <c r="E64" t="str">
-        <f>VLOOKUP(C64,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F64" s="4">
-        <v>11</v>
-      </c>
-      <c r="G64">
-        <f>VLOOKUP(C64,[1]Лист1!A:H,8,0)</f>
-        <v>4606</v>
-      </c>
-      <c r="H64">
-        <f>VLOOKUP(C64,[1]Лист1!A:H,7,0)</f>
-        <v>5287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="str">
-        <f>VLOOKUP(C65,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B65" t="str">
-        <f>VLOOKUP(C65,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="4">
-        <v>143806</v>
-      </c>
-      <c r="E65" t="str">
-        <f>VLOOKUP(C65,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F65" s="4">
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <f>VLOOKUP(C65,[1]Лист1!A:H,8,0)</f>
-        <v>3429</v>
-      </c>
-      <c r="H65">
-        <f>VLOOKUP(C65,[1]Лист1!A:H,7,0)</f>
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="str">
-        <f>VLOOKUP(C66,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B66" t="str">
-        <f>VLOOKUP(C66,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="4">
-        <v>143818</v>
-      </c>
-      <c r="E66" t="str">
-        <f>VLOOKUP(C66,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F66" s="4">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <f>VLOOKUP(C66,[1]Лист1!A:H,8,0)</f>
-        <v>3855</v>
-      </c>
-      <c r="H66">
-        <f>VLOOKUP(C66,[1]Лист1!A:H,7,0)</f>
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="str">
-        <f>VLOOKUP(C67,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B67" t="str">
-        <f>VLOOKUP(C67,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" s="4">
-        <v>143800</v>
-      </c>
-      <c r="E67" t="str">
-        <f>VLOOKUP(C67,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F67" s="4">
-        <v>6</v>
-      </c>
-      <c r="G67">
-        <f>VLOOKUP(C67,[1]Лист1!A:H,8,0)</f>
-        <v>5160</v>
-      </c>
-      <c r="H67">
-        <f>VLOOKUP(C67,[1]Лист1!A:H,7,0)</f>
-        <v>5922</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="str">
-        <f>VLOOKUP(C68,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B68" t="str">
-        <f>VLOOKUP(C68,[1]Лист1!A:C,3,0)</f>
-        <v>Гл цилиндр сцепления FTE</v>
-      </c>
-      <c r="C68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="4">
-        <v>143762</v>
-      </c>
-      <c r="E68" t="str">
-        <f>VLOOKUP(C68,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F68" s="4">
-        <v>5</v>
-      </c>
-      <c r="G68">
-        <f>VLOOKUP(C68,[1]Лист1!A:H,8,0)</f>
-        <v>1622</v>
-      </c>
-      <c r="H68">
-        <f>VLOOKUP(C68,[1]Лист1!A:H,7,0)</f>
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="str">
-        <f>VLOOKUP(C69,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B69" t="str">
-        <f>VLOOKUP(C69,[1]Лист1!A:C,3,0)</f>
-        <v>Гл цилиндр сцепления FTE</v>
-      </c>
-      <c r="C69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" s="4">
-        <v>143766</v>
-      </c>
-      <c r="E69" t="str">
-        <f>VLOOKUP(C69,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F69" s="4">
-        <v>7</v>
-      </c>
-      <c r="G69">
-        <f>VLOOKUP(C69,[1]Лист1!A:H,8,0)</f>
-        <v>1975</v>
-      </c>
-      <c r="H69">
-        <f>VLOOKUP(C69,[1]Лист1!A:H,7,0)</f>
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="str">
-        <f>VLOOKUP(C70,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B70" t="str">
-        <f>VLOOKUP(C70,[1]Лист1!A:C,3,0)</f>
-        <v>Гл цилиндр сцепления FTE</v>
-      </c>
-      <c r="C70" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="4">
-        <v>143763</v>
-      </c>
-      <c r="E70" t="str">
-        <f>VLOOKUP(C70,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F70" s="4">
-        <v>13</v>
-      </c>
-      <c r="G70">
-        <f>VLOOKUP(C70,[1]Лист1!A:H,8,0)</f>
-        <v>1552</v>
-      </c>
-      <c r="H70">
-        <f>VLOOKUP(C70,[1]Лист1!A:H,7,0)</f>
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" t="str">
-        <f>VLOOKUP(C71,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B71" t="str">
-        <f>VLOOKUP(C71,[1]Лист1!A:C,3,0)</f>
-        <v>Гл цилиндр сцепления FTE</v>
-      </c>
-      <c r="C71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="4">
-        <v>153826</v>
-      </c>
-      <c r="E71" t="str">
-        <f>VLOOKUP(C71,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F71" s="4">
-        <v>3</v>
-      </c>
-      <c r="G71">
-        <f>VLOOKUP(C71,[1]Лист1!A:H,8,0)</f>
-        <v>2593</v>
-      </c>
-      <c r="H71">
-        <f>VLOOKUP(C71,[1]Лист1!A:H,7,0)</f>
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="str">
-        <f>VLOOKUP(C72,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B72" t="str">
-        <f>VLOOKUP(C72,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" s="4">
-        <v>153825</v>
-      </c>
-      <c r="E72" t="str">
-        <f>VLOOKUP(C72,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F72" s="4">
-        <v>5</v>
-      </c>
-      <c r="G72">
-        <f>VLOOKUP(C72,[1]Лист1!A:H,8,0)</f>
-        <v>894</v>
-      </c>
-      <c r="H72">
-        <f>VLOOKUP(C72,[1]Лист1!A:H,7,0)</f>
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="str">
-        <f>VLOOKUP(C73,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B73" t="str">
-        <f>VLOOKUP(C73,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" s="4">
-        <v>143794</v>
-      </c>
-      <c r="E73" t="str">
-        <f>VLOOKUP(C73,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F73" s="4">
-        <v>5</v>
-      </c>
-      <c r="G73">
-        <f>VLOOKUP(C73,[1]Лист1!A:H,8,0)</f>
-        <v>750</v>
-      </c>
-      <c r="H73">
-        <f>VLOOKUP(C73,[1]Лист1!A:H,7,0)</f>
-        <v>860</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="str">
-        <f>VLOOKUP(C74,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B74" t="str">
-        <f>VLOOKUP(C74,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" s="4">
-        <v>143797</v>
-      </c>
-      <c r="E74" t="str">
-        <f>VLOOKUP(C74,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F74" s="4">
-        <v>2</v>
-      </c>
-      <c r="G74">
-        <f>VLOOKUP(C74,[1]Лист1!A:H,8,0)</f>
-        <v>984</v>
-      </c>
-      <c r="H74">
-        <f>VLOOKUP(C74,[1]Лист1!A:H,7,0)</f>
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="str">
-        <f>VLOOKUP(C75,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B75" t="str">
-        <f>VLOOKUP(C75,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" s="4">
-        <v>143793</v>
-      </c>
-      <c r="E75" t="str">
-        <f>VLOOKUP(C75,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F75" s="4">
-        <v>8</v>
-      </c>
-      <c r="G75">
-        <f>VLOOKUP(C75,[1]Лист1!A:H,8,0)</f>
-        <v>1316</v>
-      </c>
-      <c r="H75">
-        <f>VLOOKUP(C75,[1]Лист1!A:H,7,0)</f>
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="str">
-        <f>VLOOKUP(C76,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B76" t="str">
-        <f>VLOOKUP(C76,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D76" s="4">
-        <v>143791</v>
-      </c>
-      <c r="E76" t="str">
-        <f>VLOOKUP(C76,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <f>VLOOKUP(C76,[1]Лист1!A:H,8,0)</f>
-        <v>4231</v>
-      </c>
-      <c r="H76">
-        <f>VLOOKUP(C76,[1]Лист1!A:H,7,0)</f>
-        <v>4856</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="str">
-        <f>VLOOKUP(C77,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B77" t="str">
-        <f>VLOOKUP(C77,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="4">
-        <v>143796</v>
-      </c>
-      <c r="E77" t="str">
-        <f>VLOOKUP(C77,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F77" s="4">
-        <v>4</v>
-      </c>
-      <c r="G77">
-        <f>VLOOKUP(C77,[1]Лист1!A:H,8,0)</f>
-        <v>1024</v>
-      </c>
-      <c r="H77">
-        <f>VLOOKUP(C77,[1]Лист1!A:H,7,0)</f>
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="str">
-        <f>VLOOKUP(C78,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B78" t="str">
-        <f>VLOOKUP(C78,[1]Лист1!A:C,3,0)</f>
-        <v>Тормозные суппорта FTE</v>
-      </c>
-      <c r="C78" t="s">
-        <v>77</v>
-      </c>
-      <c r="D78" s="4">
-        <v>167365</v>
-      </c>
-      <c r="E78" t="str">
-        <f>VLOOKUP(C78,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <f>VLOOKUP(C78,[1]Лист1!A:H,8,0)</f>
-        <v>4032</v>
-      </c>
-      <c r="H78">
-        <f>VLOOKUP(C78,[1]Лист1!A:H,7,0)</f>
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="str">
-        <f>VLOOKUP(C79,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B79" t="str">
-        <f>VLOOKUP(C79,[1]Лист1!A:C,3,0)</f>
-        <v>Тормозные суппорта FTE</v>
-      </c>
-      <c r="C79" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="4">
-        <v>167366</v>
-      </c>
-      <c r="E79" t="str">
-        <f>VLOOKUP(C79,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <f>VLOOKUP(C79,[1]Лист1!A:H,8,0)</f>
-        <v>4032</v>
-      </c>
-      <c r="H79">
-        <f>VLOOKUP(C79,[1]Лист1!A:H,7,0)</f>
-        <v>4628</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="str">
-        <f>VLOOKUP(C80,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B80" t="str">
-        <f>VLOOKUP(C80,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="4">
-        <v>143801</v>
-      </c>
-      <c r="E80" t="str">
-        <f>VLOOKUP(C80,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <f>VLOOKUP(C80,[1]Лист1!A:H,8,0)</f>
-        <v>3909</v>
-      </c>
-      <c r="H80">
-        <f>VLOOKUP(C80,[1]Лист1!A:H,7,0)</f>
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="str">
-        <f>VLOOKUP(C81,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B81" t="str">
-        <f>VLOOKUP(C81,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="4">
-        <v>143820</v>
-      </c>
-      <c r="E81" t="str">
-        <f>VLOOKUP(C81,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F81" s="4">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <f>VLOOKUP(C81,[1]Лист1!A:H,8,0)</f>
-        <v>3985</v>
-      </c>
-      <c r="H81">
-        <f>VLOOKUP(C81,[1]Лист1!A:H,7,0)</f>
-        <v>4573</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="str">
-        <f>VLOOKUP(C82,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B82" t="str">
-        <f>VLOOKUP(C82,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="4">
-        <v>143804</v>
-      </c>
-      <c r="E82" t="str">
-        <f>VLOOKUP(C82,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F82" s="4">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <f>VLOOKUP(C82,[1]Лист1!A:H,8,0)</f>
-        <v>3103</v>
-      </c>
-      <c r="H82">
-        <f>VLOOKUP(C82,[1]Лист1!A:H,7,0)</f>
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="str">
-        <f>VLOOKUP(C83,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B83" t="str">
-        <f>VLOOKUP(C83,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C83" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" s="4">
-        <v>143813</v>
-      </c>
-      <c r="E83" t="str">
-        <f>VLOOKUP(C83,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F83" s="4">
-        <v>3</v>
-      </c>
-      <c r="G83">
-        <f>VLOOKUP(C83,[1]Лист1!A:H,8,0)</f>
-        <v>3127</v>
-      </c>
-      <c r="H83">
-        <f>VLOOKUP(C83,[1]Лист1!A:H,7,0)</f>
-        <v>3589</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="str">
-        <f>VLOOKUP(C84,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B84" t="str">
-        <f>VLOOKUP(C84,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="4">
-        <v>143807</v>
-      </c>
-      <c r="E84" t="str">
-        <f>VLOOKUP(C84,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F84" s="4">
-        <v>2</v>
-      </c>
-      <c r="G84">
-        <f>VLOOKUP(C84,[1]Лист1!A:H,8,0)</f>
-        <v>5260</v>
-      </c>
-      <c r="H84">
-        <f>VLOOKUP(C84,[1]Лист1!A:H,7,0)</f>
-        <v>6038</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="str">
-        <f>VLOOKUP(C85,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B85" t="str">
-        <f>VLOOKUP(C85,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="4">
-        <v>143808</v>
-      </c>
-      <c r="E85" t="str">
-        <f>VLOOKUP(C85,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F85" s="4">
-        <v>3</v>
-      </c>
-      <c r="G85">
-        <f>VLOOKUP(C85,[1]Лист1!A:H,8,0)</f>
-        <v>3258</v>
-      </c>
-      <c r="H85">
-        <f>VLOOKUP(C85,[1]Лист1!A:H,7,0)</f>
-        <v>3739</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="str">
-        <f>VLOOKUP(C86,[1]Лист1!A:F,2,0)</f>
-        <v>FTE</v>
-      </c>
-      <c r="B86" t="str">
-        <f>VLOOKUP(C86,[1]Лист1!A:C,3,0)</f>
-        <v>Раб цилиндр сцепления FTE</v>
-      </c>
-      <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" s="4">
-        <v>143812</v>
-      </c>
-      <c r="E86" t="str">
-        <f>VLOOKUP(C86,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F86" s="4">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <f>VLOOKUP(C86,[1]Лист1!A:H,8,0)</f>
-        <v>4919</v>
-      </c>
-      <c r="H86">
-        <f>VLOOKUP(C86,[1]Лист1!A:H,7,0)</f>
-        <v>5646</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="str">
-        <f>VLOOKUP(C87,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B87" t="str">
-        <f>VLOOKUP(C87,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C87" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="4">
-        <v>52149</v>
-      </c>
-      <c r="E87" t="str">
-        <f>VLOOKUP(C87,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F87" s="4">
-        <v>9</v>
-      </c>
-      <c r="G87">
-        <f>VLOOKUP(C87,[1]Лист1!A:H,8,0)</f>
-        <v>4100</v>
-      </c>
-      <c r="H87">
-        <f>VLOOKUP(C87,[1]Лист1!A:H,7,0)</f>
-        <v>4543</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="str">
-        <f>VLOOKUP(C88,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B88" t="str">
-        <f>VLOOKUP(C88,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="4">
-        <v>52146</v>
-      </c>
-      <c r="E88" t="str">
-        <f>VLOOKUP(C88,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F88" s="4">
-        <v>3</v>
-      </c>
-      <c r="G88">
-        <f>VLOOKUP(C88,[1]Лист1!A:H,8,0)</f>
-        <v>3228</v>
-      </c>
-      <c r="H88">
-        <f>VLOOKUP(C88,[1]Лист1!A:H,7,0)</f>
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="str">
-        <f>VLOOKUP(C89,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B89" t="str">
-        <f>VLOOKUP(C89,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C89" t="s">
-        <v>88</v>
-      </c>
-      <c r="D89" s="4">
-        <v>78356</v>
-      </c>
-      <c r="E89" t="str">
-        <f>VLOOKUP(C89,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F89" s="4">
-        <v>4</v>
-      </c>
-      <c r="G89">
-        <f>VLOOKUP(C89,[1]Лист1!A:H,8,0)</f>
-        <v>2612</v>
-      </c>
-      <c r="H89">
-        <f>VLOOKUP(C89,[1]Лист1!A:H,7,0)</f>
-        <v>2894</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="str">
-        <f>VLOOKUP(C90,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B90" t="str">
-        <f>VLOOKUP(C90,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C90" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="4">
-        <v>118624</v>
-      </c>
-      <c r="E90" t="str">
-        <f>VLOOKUP(C90,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F90" s="4">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <f>VLOOKUP(C90,[1]Лист1!A:H,8,0)</f>
-        <v>2300</v>
-      </c>
-      <c r="H90">
-        <f>VLOOKUP(C90,[1]Лист1!A:H,7,0)</f>
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="str">
-        <f>VLOOKUP(C91,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B91" t="str">
-        <f>VLOOKUP(C91,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D91" s="4">
-        <v>118625</v>
-      </c>
-      <c r="E91" t="str">
-        <f>VLOOKUP(C91,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F91" s="4">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <f>VLOOKUP(C91,[1]Лист1!A:H,8,0)</f>
-        <v>2938</v>
-      </c>
-      <c r="H91">
-        <f>VLOOKUP(C91,[1]Лист1!A:H,7,0)</f>
-        <v>3255</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="str">
-        <f>VLOOKUP(C92,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B92" t="str">
-        <f>VLOOKUP(C92,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" s="4">
-        <v>82616</v>
-      </c>
-      <c r="E92" t="str">
-        <f>VLOOKUP(C92,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F92" s="4">
-        <v>11</v>
-      </c>
-      <c r="G92">
-        <f>VLOOKUP(C92,[1]Лист1!A:H,8,0)</f>
-        <v>5055</v>
-      </c>
-      <c r="H92">
-        <f>VLOOKUP(C92,[1]Лист1!A:H,7,0)</f>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="str">
-        <f>VLOOKUP(C93,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B93" t="str">
-        <f>VLOOKUP(C93,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C93" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="4">
-        <v>298098</v>
-      </c>
-      <c r="E93" t="str">
-        <f>VLOOKUP(C93,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2</v>
-      </c>
-      <c r="G93">
-        <f>VLOOKUP(C93,[1]Лист1!A:H,8,0)</f>
-        <v>15026</v>
-      </c>
-      <c r="H93">
-        <f>VLOOKUP(C93,[1]Лист1!A:H,7,0)</f>
-        <v>16647</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="str">
-        <f>VLOOKUP(C94,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B94" t="str">
-        <f>VLOOKUP(C94,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D94" s="4">
-        <v>60502</v>
-      </c>
-      <c r="E94" t="str">
-        <f>VLOOKUP(C94,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <f>VLOOKUP(C94,[1]Лист1!A:H,8,0)</f>
-        <v>2061</v>
-      </c>
-      <c r="H94">
-        <f>VLOOKUP(C94,[1]Лист1!A:H,7,0)</f>
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="str">
-        <f>VLOOKUP(C95,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B95" t="str">
-        <f>VLOOKUP(C95,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C95" t="s">
-        <v>94</v>
-      </c>
-      <c r="D95" s="4">
-        <v>46950</v>
-      </c>
-      <c r="E95" t="str">
-        <f>VLOOKUP(C95,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F95" s="4">
-        <v>4</v>
-      </c>
-      <c r="G95">
-        <f>VLOOKUP(C95,[1]Лист1!A:H,8,0)</f>
-        <v>4871</v>
-      </c>
-      <c r="H95">
-        <f>VLOOKUP(C95,[1]Лист1!A:H,7,0)</f>
-        <v>5397</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="str">
-        <f>VLOOKUP(C96,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B96" t="str">
-        <f>VLOOKUP(C96,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" s="4">
-        <v>115966</v>
-      </c>
-      <c r="E96" t="str">
-        <f>VLOOKUP(C96,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F96" s="4">
-        <v>3</v>
-      </c>
-      <c r="G96">
-        <f>VLOOKUP(C96,[1]Лист1!A:H,8,0)</f>
-        <v>2886</v>
-      </c>
-      <c r="H96">
-        <f>VLOOKUP(C96,[1]Лист1!A:H,7,0)</f>
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="str">
-        <f>VLOOKUP(C97,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B97" t="str">
-        <f>VLOOKUP(C97,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="4">
-        <v>115967</v>
-      </c>
-      <c r="E97" t="str">
-        <f>VLOOKUP(C97,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F97" s="4">
-        <v>5</v>
-      </c>
-      <c r="G97">
-        <f>VLOOKUP(C97,[1]Лист1!A:H,8,0)</f>
-        <v>1703</v>
-      </c>
-      <c r="H97">
-        <f>VLOOKUP(C97,[1]Лист1!A:H,7,0)</f>
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" t="str">
-        <f>VLOOKUP(C98,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B98" t="str">
-        <f>VLOOKUP(C98,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C98" t="s">
-        <v>97</v>
-      </c>
-      <c r="D98" s="4">
-        <v>107757</v>
-      </c>
-      <c r="E98" t="str">
-        <f>VLOOKUP(C98,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F98" s="4">
-        <v>3</v>
-      </c>
-      <c r="G98">
-        <f>VLOOKUP(C98,[1]Лист1!A:H,8,0)</f>
-        <v>3782</v>
-      </c>
-      <c r="H98">
-        <f>VLOOKUP(C98,[1]Лист1!A:H,7,0)</f>
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="str">
-        <f>VLOOKUP(C99,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B99" t="str">
-        <f>VLOOKUP(C99,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C99" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="4">
-        <v>68447</v>
-      </c>
-      <c r="E99" t="str">
-        <f>VLOOKUP(C99,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F99" s="4">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <f>VLOOKUP(C99,[1]Лист1!A:H,8,0)</f>
-        <v>4589</v>
-      </c>
-      <c r="H99">
-        <f>VLOOKUP(C99,[1]Лист1!A:H,7,0)</f>
-        <v>5084</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="str">
-        <f>VLOOKUP(C100,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B100" t="str">
-        <f>VLOOKUP(C100,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="4">
-        <v>107756</v>
-      </c>
-      <c r="E100" t="str">
-        <f>VLOOKUP(C100,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F100" s="4">
-        <v>4</v>
-      </c>
-      <c r="G100">
-        <f>VLOOKUP(C100,[1]Лист1!A:H,8,0)</f>
-        <v>2924</v>
-      </c>
-      <c r="H100">
-        <f>VLOOKUP(C100,[1]Лист1!A:H,7,0)</f>
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" t="str">
-        <f>VLOOKUP(C101,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B101" t="str">
-        <f>VLOOKUP(C101,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C101" t="s">
-        <v>100</v>
-      </c>
-      <c r="D101" s="4">
-        <v>166575</v>
-      </c>
-      <c r="E101" t="str">
-        <f>VLOOKUP(C101,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F101" s="4">
-        <v>6</v>
-      </c>
-      <c r="G101">
-        <f>VLOOKUP(C101,[1]Лист1!A:H,8,0)</f>
-        <v>5406</v>
-      </c>
-      <c r="H101">
-        <f>VLOOKUP(C101,[1]Лист1!A:H,7,0)</f>
-        <v>5989</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="str">
-        <f>VLOOKUP(C102,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B102" t="str">
-        <f>VLOOKUP(C102,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C102" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" s="4">
-        <v>172686</v>
-      </c>
-      <c r="E102" t="str">
-        <f>VLOOKUP(C102,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F102" s="4">
-        <v>7</v>
-      </c>
-      <c r="G102">
-        <f>VLOOKUP(C102,[1]Лист1!A:H,8,0)</f>
-        <v>2902</v>
-      </c>
-      <c r="H102">
-        <f>VLOOKUP(C102,[1]Лист1!A:H,7,0)</f>
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="str">
-        <f>VLOOKUP(C103,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B103" t="str">
-        <f>VLOOKUP(C103,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103" s="4">
-        <v>166518</v>
-      </c>
-      <c r="E103" t="str">
-        <f>VLOOKUP(C103,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F103" s="4">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <f>VLOOKUP(C103,[1]Лист1!A:H,8,0)</f>
-        <v>3118</v>
-      </c>
-      <c r="H103">
-        <f>VLOOKUP(C103,[1]Лист1!A:H,7,0)</f>
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" t="str">
-        <f>VLOOKUP(C104,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B104" t="str">
-        <f>VLOOKUP(C104,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C104" t="s">
-        <v>103</v>
-      </c>
-      <c r="D104" s="4">
-        <v>156390</v>
-      </c>
-      <c r="E104" t="str">
-        <f>VLOOKUP(C104,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F104" s="4">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <f>VLOOKUP(C104,[1]Лист1!A:H,8,0)</f>
-        <v>2310</v>
-      </c>
-      <c r="H104">
-        <f>VLOOKUP(C104,[1]Лист1!A:H,7,0)</f>
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="str">
-        <f>VLOOKUP(C105,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B105" t="str">
-        <f>VLOOKUP(C105,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C105" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" s="4">
-        <v>103835</v>
-      </c>
-      <c r="E105" t="str">
-        <f>VLOOKUP(C105,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F105" s="4">
-        <v>1</v>
-      </c>
-      <c r="G105">
-        <f>VLOOKUP(C105,[1]Лист1!A:H,8,0)</f>
-        <v>951</v>
-      </c>
-      <c r="H105">
-        <f>VLOOKUP(C105,[1]Лист1!A:H,7,0)</f>
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="str">
-        <f>VLOOKUP(C106,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B106" t="str">
-        <f>VLOOKUP(C106,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C106" t="s">
-        <v>105</v>
-      </c>
-      <c r="D106" s="4">
-        <v>82615</v>
-      </c>
-      <c r="E106" t="str">
-        <f>VLOOKUP(C106,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F106" s="4">
-        <v>9</v>
-      </c>
-      <c r="G106">
-        <f>VLOOKUP(C106,[1]Лист1!A:H,8,0)</f>
-        <v>1869</v>
-      </c>
-      <c r="H106">
-        <f>VLOOKUP(C106,[1]Лист1!A:H,7,0)</f>
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" t="str">
-        <f>VLOOKUP(C107,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B107" t="str">
-        <f>VLOOKUP(C107,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C107" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" s="4">
-        <v>107396</v>
-      </c>
-      <c r="E107" t="str">
-        <f>VLOOKUP(C107,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F107" s="4">
-        <v>1</v>
-      </c>
-      <c r="G107">
-        <f>VLOOKUP(C107,[1]Лист1!A:H,8,0)</f>
-        <v>11484</v>
-      </c>
-      <c r="H107">
-        <f>VLOOKUP(C107,[1]Лист1!A:H,7,0)</f>
-        <v>12837</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="str">
-        <f>VLOOKUP(C108,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B108" t="str">
-        <f>VLOOKUP(C108,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" s="4">
-        <v>94346</v>
-      </c>
-      <c r="E108" t="str">
-        <f>VLOOKUP(C108,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F108" s="4">
-        <v>1</v>
-      </c>
-      <c r="G108">
-        <f>VLOOKUP(C108,[1]Лист1!A:H,8,0)</f>
-        <v>2624</v>
-      </c>
-      <c r="H108">
-        <f>VLOOKUP(C108,[1]Лист1!A:H,7,0)</f>
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="str">
-        <f>VLOOKUP(C109,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B109" t="str">
-        <f>VLOOKUP(C109,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C109" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="4">
-        <v>100809</v>
-      </c>
-      <c r="E109" t="str">
-        <f>VLOOKUP(C109,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F109" s="4">
-        <v>3</v>
-      </c>
-      <c r="G109">
-        <f>VLOOKUP(C109,[1]Лист1!A:H,8,0)</f>
-        <v>1910</v>
-      </c>
-      <c r="H109">
-        <f>VLOOKUP(C109,[1]Лист1!A:H,7,0)</f>
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" t="str">
-        <f>VLOOKUP(C110,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B110" t="str">
-        <f>VLOOKUP(C110,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C110" t="s">
-        <v>109</v>
-      </c>
-      <c r="D110" s="4">
-        <v>156406</v>
-      </c>
-      <c r="E110" t="str">
-        <f>VLOOKUP(C110,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F110" s="4">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <f>VLOOKUP(C110,[1]Лист1!A:H,8,0)</f>
-        <v>3039</v>
-      </c>
-      <c r="H110">
-        <f>VLOOKUP(C110,[1]Лист1!A:H,7,0)</f>
-        <v>3367</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="str">
-        <f>VLOOKUP(C111,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B111" t="str">
-        <f>VLOOKUP(C111,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C111" t="s">
-        <v>110</v>
-      </c>
-      <c r="D111" s="4">
-        <v>156407</v>
-      </c>
-      <c r="E111" t="str">
-        <f>VLOOKUP(C111,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F111" s="4">
-        <v>2</v>
-      </c>
-      <c r="G111">
-        <f>VLOOKUP(C111,[1]Лист1!A:H,8,0)</f>
-        <v>1768</v>
-      </c>
-      <c r="H111">
-        <f>VLOOKUP(C111,[1]Лист1!A:H,7,0)</f>
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="str">
-        <f>VLOOKUP(C112,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B112" t="str">
-        <f>VLOOKUP(C112,[1]Лист1!A:C,3,0)</f>
-        <v>Шкив коленвала DAYCO</v>
-      </c>
-      <c r="C112" t="s">
-        <v>111</v>
-      </c>
-      <c r="D112" s="4">
-        <v>166578</v>
-      </c>
-      <c r="E112" t="str">
-        <f>VLOOKUP(C112,[1]Лист1!A:H,6,0)</f>
-        <v>шт</v>
-      </c>
-      <c r="F112" s="4">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <f>VLOOKUP(C112,[1]Лист1!A:H,8,0)</f>
-        <v>5136</v>
-      </c>
-      <c r="H112">
-        <f>VLOOKUP(C112,[1]Лист1!A:H,7,0)</f>
-        <v>5689</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="str">
-        <f>VLOOKUP(C113,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B113" t="str">
-        <f>VLOOKUP(C113,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C113" t="s">
-        <v>112</v>
-      </c>
-      <c r="D113" s="4">
-        <v>59049</v>
-      </c>
-      <c r="E113" t="str">
-        <f>VLOOKUP(C113,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F113" s="4">
-        <v>2</v>
-      </c>
-      <c r="G113">
-        <f>VLOOKUP(C113,[1]Лист1!A:H,8,0)</f>
-        <v>3340</v>
-      </c>
-      <c r="H113">
-        <f>VLOOKUP(C113,[1]Лист1!A:H,7,0)</f>
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="str">
-        <f>VLOOKUP(C114,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B114" t="str">
-        <f>VLOOKUP(C114,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C114" t="s">
-        <v>113</v>
-      </c>
-      <c r="D114" s="4">
-        <v>115971</v>
-      </c>
-      <c r="E114" t="str">
-        <f>VLOOKUP(C114,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F114" s="4">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <f>VLOOKUP(C114,[1]Лист1!A:H,8,0)</f>
-        <v>3660</v>
-      </c>
-      <c r="H114">
-        <f>VLOOKUP(C114,[1]Лист1!A:H,7,0)</f>
-        <v>4054</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="str">
-        <f>VLOOKUP(C115,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B115" t="str">
-        <f>VLOOKUP(C115,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C115" t="s">
-        <v>114</v>
-      </c>
-      <c r="D115" s="4">
-        <v>70239</v>
-      </c>
-      <c r="E115" t="str">
-        <f>VLOOKUP(C115,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F115" s="4">
-        <v>5</v>
-      </c>
-      <c r="G115">
-        <f>VLOOKUP(C115,[1]Лист1!A:H,8,0)</f>
-        <v>2285</v>
-      </c>
-      <c r="H115">
-        <f>VLOOKUP(C115,[1]Лист1!A:H,7,0)</f>
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="str">
-        <f>VLOOKUP(C116,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B116" t="str">
-        <f>VLOOKUP(C116,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C116" t="s">
-        <v>115</v>
-      </c>
-      <c r="D116" s="4">
-        <v>59059</v>
-      </c>
-      <c r="E116" t="str">
-        <f>VLOOKUP(C116,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F116" s="4">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <f>VLOOKUP(C116,[1]Лист1!A:H,8,0)</f>
-        <v>2168</v>
-      </c>
-      <c r="H116">
-        <f>VLOOKUP(C116,[1]Лист1!A:H,7,0)</f>
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" t="str">
-        <f>VLOOKUP(C117,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B117" t="str">
-        <f>VLOOKUP(C117,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C117" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" s="4">
-        <v>60500</v>
-      </c>
-      <c r="E117" t="str">
-        <f>VLOOKUP(C117,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <f>VLOOKUP(C117,[1]Лист1!A:H,8,0)</f>
-        <v>2966</v>
-      </c>
-      <c r="H117">
-        <f>VLOOKUP(C117,[1]Лист1!A:H,7,0)</f>
-        <v>3286</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="str">
-        <f>VLOOKUP(C118,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B118" t="str">
-        <f>VLOOKUP(C118,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C118" t="s">
-        <v>117</v>
-      </c>
-      <c r="D118" s="4">
-        <v>273368</v>
-      </c>
-      <c r="E118" t="str">
-        <f>VLOOKUP(C118,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F118" s="4">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <f>VLOOKUP(C118,[1]Лист1!A:H,8,0)</f>
-        <v>1545</v>
-      </c>
-      <c r="H118">
-        <f>VLOOKUP(C118,[1]Лист1!A:H,7,0)</f>
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="str">
-        <f>VLOOKUP(C119,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B119" t="str">
-        <f>VLOOKUP(C119,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C119" t="s">
-        <v>118</v>
-      </c>
-      <c r="D119" s="4">
-        <v>115960</v>
-      </c>
-      <c r="E119" t="str">
-        <f>VLOOKUP(C119,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F119" s="4">
-        <v>2</v>
-      </c>
-      <c r="G119">
-        <f>VLOOKUP(C119,[1]Лист1!A:H,8,0)</f>
-        <v>983</v>
-      </c>
-      <c r="H119">
-        <f>VLOOKUP(C119,[1]Лист1!A:H,7,0)</f>
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="str">
-        <f>VLOOKUP(C120,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B120" t="str">
-        <f>VLOOKUP(C120,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C120" t="s">
-        <v>119</v>
-      </c>
-      <c r="D120" s="4">
-        <v>115963</v>
-      </c>
-      <c r="E120" t="str">
-        <f>VLOOKUP(C120,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <f>VLOOKUP(C120,[1]Лист1!A:H,8,0)</f>
-        <v>3138</v>
-      </c>
-      <c r="H120">
-        <f>VLOOKUP(C120,[1]Лист1!A:H,7,0)</f>
-        <v>3477</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="str">
-        <f>VLOOKUP(C121,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B121" t="str">
-        <f>VLOOKUP(C121,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C121" t="s">
-        <v>120</v>
-      </c>
-      <c r="D121" s="4">
-        <v>87270</v>
-      </c>
-      <c r="E121" t="str">
-        <f>VLOOKUP(C121,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F121" s="4">
-        <v>2</v>
-      </c>
-      <c r="G121">
-        <f>VLOOKUP(C121,[1]Лист1!A:H,8,0)</f>
-        <v>1529</v>
-      </c>
-      <c r="H121">
-        <f>VLOOKUP(C121,[1]Лист1!A:H,7,0)</f>
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="str">
-        <f>VLOOKUP(C122,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B122" t="str">
-        <f>VLOOKUP(C122,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C122" t="s">
-        <v>121</v>
-      </c>
-      <c r="D122" s="4">
-        <v>87271</v>
-      </c>
-      <c r="E122" t="str">
-        <f>VLOOKUP(C122,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F122" s="4">
-        <v>2</v>
-      </c>
-      <c r="G122">
-        <f>VLOOKUP(C122,[1]Лист1!A:H,8,0)</f>
-        <v>1503</v>
-      </c>
-      <c r="H122">
-        <f>VLOOKUP(C122,[1]Лист1!A:H,7,0)</f>
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="str">
-        <f>VLOOKUP(C123,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B123" t="str">
-        <f>VLOOKUP(C123,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C123" t="s">
-        <v>122</v>
-      </c>
-      <c r="D123" s="4">
-        <v>107758</v>
-      </c>
-      <c r="E123" t="str">
-        <f>VLOOKUP(C123,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F123" s="4">
-        <v>2</v>
-      </c>
-      <c r="G123">
-        <f>VLOOKUP(C123,[1]Лист1!A:H,8,0)</f>
-        <v>5405</v>
-      </c>
-      <c r="H123">
-        <f>VLOOKUP(C123,[1]Лист1!A:H,7,0)</f>
-        <v>5989</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="str">
-        <f>VLOOKUP(C124,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B124" t="str">
-        <f>VLOOKUP(C124,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C124" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" s="4">
-        <v>107760</v>
-      </c>
-      <c r="E124" t="str">
-        <f>VLOOKUP(C124,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <f>VLOOKUP(C124,[1]Лист1!A:H,8,0)</f>
-        <v>3061</v>
-      </c>
-      <c r="H124">
-        <f>VLOOKUP(C124,[1]Лист1!A:H,7,0)</f>
-        <v>3391</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="str">
-        <f>VLOOKUP(C125,[1]Лист1!A:F,2,0)</f>
-        <v>DAYCO</v>
-      </c>
-      <c r="B125" t="str">
-        <f>VLOOKUP(C125,[1]Лист1!A:C,3,0)</f>
-        <v>Комплекты ГРМ DAYCO</v>
-      </c>
-      <c r="C125" t="s">
-        <v>124</v>
-      </c>
-      <c r="D125" s="4">
-        <v>166574</v>
-      </c>
-      <c r="E125" t="str">
-        <f>VLOOKUP(C125,[1]Лист1!A:H,6,0)</f>
-        <v>к-т</v>
-      </c>
-      <c r="F125" s="4">
-        <v>2</v>
-      </c>
-      <c r="G125">
-        <f>VLOOKUP(C125,[1]Лист1!A:H,8,0)</f>
-        <v>5804</v>
-      </c>
-      <c r="H125">
-        <f>VLOOKUP(C125,[1]Лист1!A:H,7,0)</f>
         <v>6430</v>
       </c>
     </row>
